--- a/3.4.Standard-normal-distribution-exercise.xlsx
+++ b/3.4.Standard-normal-distribution-exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Downloads/The Data Science Course 2021 - All Resources/Part_3_Statistics/S17_L99/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/Excel Work/365-Data-Science-Course-Excel-Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FF40D0-1CD0-6D43-92C6-9C7F59E5FB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91788DA9-19FD-3645-BE41-157F090D006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25840" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard normal" sheetId="3" r:id="rId1"/>
@@ -19,13 +19,6 @@
     <definedName name="_xlchart.v1.0" hidden="1">'Standard normal'!$B$11:$B$90</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Standard normal'!$H$11:$H$90</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Standard normal'!$B$11:$B$90</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Standard normal'!$H$11:$H$90</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Standard normal'!$B$11:$B$90</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Standard normal'!$H$11:$H$90</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Standard normal'!$H$11:$H$90</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Standard normal'!$H$11:$H$90</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Standard normal'!$H$11:$H$90</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Standard normal'!$H$11:$H$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -208,7 +201,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -271,7 +264,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1508,15 +1501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1552,8 +1545,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5676900" y="4876800"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5672666" y="5253567"/>
+              <a:ext cx="4605867" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1587,9 +1580,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1627,7 +1620,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1733,7 +1726,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1875,7 +1868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1885,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1960,7 +1953,7 @@
       <c r="H10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N10" s="5"/>
@@ -2064,7 +2057,7 @@
       <c r="I16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
         <v>628.45000000000005</v>
       </c>
@@ -2074,11 +2067,8 @@
       </c>
       <c r="I17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="R17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
         <v>644.86666666666679</v>
       </c>
@@ -2089,7 +2079,7 @@
       <c r="I18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
         <v>650.45000000000005</v>
       </c>
@@ -2100,7 +2090,7 @@
       <c r="I19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="6">
         <v>652.20000000000005</v>
       </c>
@@ -2111,7 +2101,7 @@
       <c r="I20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="6">
         <v>656.86666666666679</v>
       </c>
@@ -2122,7 +2112,7 @@
       <c r="I21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="6">
         <v>661.45</v>
       </c>
@@ -2133,7 +2123,7 @@
       <c r="I22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="6">
         <v>666.45</v>
       </c>
@@ -2144,7 +2134,7 @@
       <c r="I23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="6">
         <v>667.7</v>
       </c>
@@ -2155,7 +2145,7 @@
       <c r="I24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="6">
         <v>668.95</v>
       </c>
@@ -2166,7 +2156,7 @@
       <c r="I25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="6">
         <v>675.2833333333333</v>
       </c>
@@ -2177,7 +2167,7 @@
       <c r="I26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="6">
         <v>675.7833333333333</v>
       </c>
@@ -2188,7 +2178,7 @@
       <c r="I27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="6">
         <v>685.5333333333333</v>
       </c>
@@ -2199,7 +2189,7 @@
       <c r="I28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="6">
         <v>694.2833333333333</v>
       </c>
@@ -2210,7 +2200,7 @@
       <c r="I29" s="6"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="6">
         <v>697.61666666666679</v>
       </c>
@@ -2221,7 +2211,7 @@
       <c r="I30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="6">
         <v>705.7833333333333</v>
       </c>
@@ -2232,7 +2222,7 @@
       <c r="I31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="6">
         <v>705.86666666666679</v>
       </c>
@@ -2241,6 +2231,9 @@
         <v>-0.50248652850095266</v>
       </c>
       <c r="I32" s="6"/>
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
